--- a/Phenoloxidase Activity data/Data for 150 samples/09.1 Phenoloxidase 21-08-24 (HEG 7- 13, AEG 34-37, 39).xlsx
+++ b/Phenoloxidase Activity data/Data for 150 samples/09.1 Phenoloxidase 21-08-24 (HEG 7- 13, AEG 34-37, 39).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Data\Phenol oxidase activity\Phenoloxidase Activity data\Data for 150 samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Research\Phenoloxidase Activity data\Data for 150 samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Original data" sheetId="2" r:id="rId1"/>
@@ -794,7 +794,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -999,11 +998,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="284695544"/>
-        <c:axId val="284690840"/>
+        <c:axId val="306302144"/>
+        <c:axId val="306299400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="284695544"/>
+        <c:axId val="306302144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1060,12 +1059,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284690840"/>
+        <c:crossAx val="306299400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="284690840"/>
+        <c:axId val="306299400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1122,7 +1121,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284695544"/>
+        <c:crossAx val="306302144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1384,11 +1383,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="415445984"/>
-        <c:axId val="415440104"/>
+        <c:axId val="305281896"/>
+        <c:axId val="305284248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="415445984"/>
+        <c:axId val="305281896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,12 +1444,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415440104"/>
+        <c:crossAx val="305284248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="415440104"/>
+        <c:axId val="305284248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1507,7 +1506,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415445984"/>
+        <c:crossAx val="305281896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1769,11 +1768,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="415444024"/>
-        <c:axId val="415442064"/>
+        <c:axId val="305282288"/>
+        <c:axId val="305279544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="415444024"/>
+        <c:axId val="305282288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1830,12 +1829,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415442064"/>
+        <c:crossAx val="305279544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="415442064"/>
+        <c:axId val="305279544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1892,7 +1891,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415444024"/>
+        <c:crossAx val="305282288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2154,11 +2153,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="415445592"/>
-        <c:axId val="415444416"/>
+        <c:axId val="305277976"/>
+        <c:axId val="305283464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="415445592"/>
+        <c:axId val="305277976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2215,12 +2214,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415444416"/>
+        <c:crossAx val="305283464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="415444416"/>
+        <c:axId val="305283464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2277,7 +2276,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415445592"/>
+        <c:crossAx val="305277976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2515,11 +2514,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="415446376"/>
-        <c:axId val="415440888"/>
+        <c:axId val="305285424"/>
+        <c:axId val="305280328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="415446376"/>
+        <c:axId val="305285424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2576,12 +2575,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415440888"/>
+        <c:crossAx val="305280328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="415440888"/>
+        <c:axId val="305280328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2638,7 +2637,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415446376"/>
+        <c:crossAx val="305285424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2900,11 +2899,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="415447160"/>
-        <c:axId val="415441672"/>
+        <c:axId val="305284640"/>
+        <c:axId val="305278760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="415447160"/>
+        <c:axId val="305284640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2961,12 +2960,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415441672"/>
+        <c:crossAx val="305278760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="415441672"/>
+        <c:axId val="305278760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3023,7 +3022,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415447160"/>
+        <c:crossAx val="305284640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3087,7 +3086,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3162,7 +3160,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3287,11 +3284,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="291676616"/>
-        <c:axId val="291677400"/>
+        <c:axId val="306300184"/>
+        <c:axId val="306302536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="291676616"/>
+        <c:axId val="306300184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3348,12 +3345,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291677400"/>
+        <c:crossAx val="306302536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="291677400"/>
+        <c:axId val="306302536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3410,7 +3407,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291676616"/>
+        <c:crossAx val="306300184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3474,7 +3471,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3549,7 +3545,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3674,11 +3669,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="291677792"/>
-        <c:axId val="291678968"/>
+        <c:axId val="306295872"/>
+        <c:axId val="306296656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="291677792"/>
+        <c:axId val="306295872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3735,12 +3730,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291678968"/>
+        <c:crossAx val="306296656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="291678968"/>
+        <c:axId val="306296656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3797,7 +3792,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291677792"/>
+        <c:crossAx val="306295872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4065,11 +4060,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="291683280"/>
-        <c:axId val="291682104"/>
+        <c:axId val="308131328"/>
+        <c:axId val="308135640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="291683280"/>
+        <c:axId val="308131328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4126,12 +4121,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291682104"/>
+        <c:crossAx val="308135640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="291682104"/>
+        <c:axId val="308135640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4188,7 +4183,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291683280"/>
+        <c:crossAx val="308131328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4456,11 +4451,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="291677008"/>
-        <c:axId val="291676224"/>
+        <c:axId val="308136032"/>
+        <c:axId val="308129368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="291677008"/>
+        <c:axId val="308136032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4517,12 +4512,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291676224"/>
+        <c:crossAx val="308129368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="291676224"/>
+        <c:axId val="308129368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4579,7 +4574,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291677008"/>
+        <c:crossAx val="308136032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4643,6 +4638,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4717,6 +4713,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4855,11 +4852,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="291681320"/>
-        <c:axId val="291678576"/>
+        <c:axId val="308129760"/>
+        <c:axId val="304373416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="291681320"/>
+        <c:axId val="308129760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4916,12 +4913,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291678576"/>
+        <c:crossAx val="304373416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="291678576"/>
+        <c:axId val="304373416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4978,7 +4975,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291681320"/>
+        <c:crossAx val="308129760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5042,6 +5039,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5260,11 +5258,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="291679752"/>
-        <c:axId val="291680536"/>
+        <c:axId val="304374200"/>
+        <c:axId val="304375376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="291679752"/>
+        <c:axId val="304374200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5321,12 +5319,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291680536"/>
+        <c:crossAx val="304375376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="291680536"/>
+        <c:axId val="304375376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5383,7 +5381,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291679752"/>
+        <c:crossAx val="304374200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5447,6 +5445,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5665,11 +5664,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="291682888"/>
-        <c:axId val="415443240"/>
+        <c:axId val="304368712"/>
+        <c:axId val="304369104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="291682888"/>
+        <c:axId val="304368712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5726,12 +5725,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415443240"/>
+        <c:crossAx val="304369104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="415443240"/>
+        <c:axId val="304369104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5788,7 +5787,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291682888"/>
+        <c:crossAx val="304368712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6056,11 +6055,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="415445200"/>
-        <c:axId val="415443632"/>
+        <c:axId val="381412136"/>
+        <c:axId val="381410960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="415445200"/>
+        <c:axId val="381412136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6117,12 +6116,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415443632"/>
+        <c:crossAx val="381410960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="415443632"/>
+        <c:axId val="381410960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6179,7 +6178,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415445200"/>
+        <c:crossAx val="381412136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14707,8 +14706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L123"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:L85"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18164,8 +18163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23062,8 +23061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
